--- a/ReadExcel/Import/Test.xlsx
+++ b/ReadExcel/Import/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_MyWork\ASH-AOP\Working\Input\05 - Screen Report Definition.IMP010.Model Type Master(Import)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoftManz\source\repos\OpenXML\ReadExcel\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A344AB-EA9E-4F74-AB5D-22F25380F88A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E4D82-D109-4CC1-ADB9-F36D2DB22AAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="19155" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="19155" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1(MODEL)" sheetId="7" r:id="rId1"/>
@@ -709,7 +709,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +831,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3620,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D7" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7582,17 +7585,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AI8:AP8"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AS8:AS9"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="K7:AG7"/>
     <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="AI8:AP8"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AS8:AS9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7610,8 +7613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A7C6AE-B26F-4C6E-9B90-1843DB0B79A4}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="Y1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5:AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7643,7 +7646,14 @@
     </row>
     <row r="3" spans="1:45" s="1" customFormat="1" ht="14.25"/>
     <row r="4" spans="1:45" s="1" customFormat="1" ht="14.25"/>
-    <row r="5" spans="1:45" s="1" customFormat="1" ht="14.25"/>
+    <row r="5" spans="1:45" s="1" customFormat="1" ht="14.25">
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+    </row>
     <row r="6" spans="1:45">
       <c r="A6" s="3" t="s">
         <v>149</v>
@@ -11571,18 +11581,19 @@
       <c r="AS49" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AP8"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
+  <mergeCells count="12">
+    <mergeCell ref="AL5:AQ5"/>
     <mergeCell ref="K7:AG7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AP8"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39400000000000002" bottom="0.39400000000000002" header="0.51200000000000001" footer="0.51200000000000001"/>

--- a/ReadExcel/Import/Test.xlsx
+++ b/ReadExcel/Import/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoftManz\source\repos\OpenXML\ReadExcel\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Github\OpenXML\ReadExcel\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E4D82-D109-4CC1-ADB9-F36D2DB22AAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D367FC90-99EF-43AD-A0D5-301F70FDF2B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="375" windowWidth="19155" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -834,7 +834,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3623,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D7" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7614,7 +7614,7 @@
   <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5:AQ5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11581,8 +11581,9 @@
       <c r="AS49" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AL5:AQ5"/>
+  <mergeCells count="11">
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
     <mergeCell ref="K7:AG7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:D9"/>
@@ -11592,8 +11593,6 @@
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AI8:AP8"/>
     <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39400000000000002" bottom="0.39400000000000002" header="0.51200000000000001" footer="0.51200000000000001"/>
